--- a/Translation Script/Map001.xlsx
+++ b/Translation Script/Map001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>&lt;Darkness:20&gt;</t>
   </si>
@@ -442,36 +442,71 @@
 むちゅぅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Kiss♥ Smooch♥
+Give me a kiss♥
+Slurp-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;押し倒してキスされるとぉ、
 もう逃げる気なんてなくなっちゃうわよねー♥
 最初から無いのかもだけど♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Once I pin you down and kiss you, you're not
+gonna want to run away anymore-♥
+Or maybe you never wanted to in the first place♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;早く逃げないといっぱいちゅーしちゃうわよ♥
 されたいの？
 ちゅっ♥ちゅぅぅ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;If you don't escape, I'll cover you in kisses♥
+Do you want that?
+Kiss♥ Smooch♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんたみたいな雑魚、キスだけで十分よね♥
 ちゅぅ♥ちゅっ♥ちゅっ♥ちゅぅぅう♥
 ほーらこれだけでもう逃げられない♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;For a weakling like yourself, a kiss should be enough♥
+Kiss♥ Kiss♥ Kiss♥ Smoooch♥
+Horaaa, you won't get away from me♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イク？ねぇ。キスだけでイっちゃう？
 くちびる押し付けられて精液漏らしちゃうの？
 むちゅぅぅー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're cumming? Really. Cumming from just a kiss?
+Spilling your seed just from pressing lips?
+Smooooch-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ぷ♥くくく♥
 まじでイった♥
 やばすぎ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Pu♥ Kukuku♥
+You actually came♥
+So pathetic♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっは♥捕まえた♥
 ここに挟まれたらあとはもう射精するしかないの。
 抵抗しないで♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥ Gotcha♥
+Now that you're here, all that's left is to ejaculate.
+Go on, don't resist♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;太ももに挟んじゃった・・・♥
 ねぇ♥逃げるのやめて射精しよ？
 ほら、私のこと抱きしめて♥</t>
@@ -481,6 +516,10 @@
 ねぇ♥逃げるのやめて射精しよ？ほら、私のこと抱きしめて♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Got you between my thighs...♥
+Hey♥ Just quit running and ejaculate, huh?/nHug me really tightly...♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;太ももでぎゅってされるとぉ、
 ムチムチであったかくて逃げたくなくなるでしょー？
 くすくす♥</t>
@@ -490,6 +529,10 @@
 ムチムチであったかくて逃げたくなくなるでしょー？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Aren't my thighs so plump and warm? You can't
+want to run away while you're between them. Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ねーぇ♥
 私の太ももで搾られたくなぁい？くすくす♥
 逃げないでー♥</t>
@@ -528,6 +571,10 @@
 足コキしてあげる♥あんた踏まれるの好きでしょ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ Gotcha♥
+I'll give you a footjob♥ You like being stepped on,\ndon't you? Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やん♥もうこんなにビンビン♥
 足の裏でもカチカチなの分かる♥
 あははは♥</t>
@@ -546,6 +593,10 @@
 足なんかで射精しちゃうわよー？そんな情けないイキ方していいのー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;If you don't shake me off quick, you'll ejaculate
+on my feet. What a pathetic way to live,\ndon't you think?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんた、わざと捕まったでしょ。
 ねぇ。ねぇねぇ♥
 どーなの？ほら♥ほらどーなのよ♥</t>
@@ -555,8 +606,16 @@
 ねぇ。ねぇねぇ♥どーなの？ほら♥ほらどーなのよ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You just got yourself caught on purpose.
+Hey. Hey, hey♥ How's that feel?\nHora♥ Feels nice?♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんな辛そうな声出しちゃって。
 まさかもう射精するんじゃないでしょうね。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Such a pained cry you let out.
+I wonder if you'll ejacaulate again?</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ウソ。こいつ弱すぎ。
@@ -564,6 +623,11 @@
 だっさ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;My my. This one is so weak.
+Aahh, the game ends with a footjob.
+Patheic♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;く・・・う・・・
 ゆ、油断したわ。
 あんたがこんなに力を取り戻しているなんて。</t>
@@ -620,28 +684,57 @@
 にゃははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Will I make you cum before you can run away, nya-?
+Hoora, lick it up, nyan.
+Nyahahaha♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシの匂いで頭バカにするにゃ。
 あ、元々バカだったし。
 にゃははは！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;My scent will turn you to a drooling idiot, nya.
+Ah, but you were already a drooling idiot.
+Nyahahaha!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;チンポびんびんで苦しそうにゃん。
 ほーら、アタシをおかずにオナニーしていいにゃ。
 もう諦めてチンポ気持ちよくしてやればー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Your dick looks painfully hard, nyan.
+Hoora, go ahead and spank it to me.
+Why not give up and let your cock feel good-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
 そんなにアタシに犯されたかったにゃ？
 気持ちわりーにゃぁ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Did you just get caught on purpose, nyaa?
+You wanted me to rape you that badly?
+Disgusting, nyaa.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;これだけで射精しそうになってるし。
 アタシ出していいって言ってないにゃー。
 出すなよ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're about to cum from just this?
+Well I'm ordering you not to cum yet, nyaa.
+You're not going to, are you?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーあ。
 勝手にお漏らしするバカチンポはおしおきにゃん。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aaahh.
+A pathetic dick that cums without permission \ndeserves a punishment, nyaan.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;いただきにゃ～ん♥
@@ -649,6 +742,11 @@
 じゅるるるるるるるるる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Looks nya～mmy♥
+Liick～♥
+Sluuuuuuurpp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;じゅるるるる♥
 気持ちよくて動けないにゃぁ？
 そのままじっとしてろにゃ♥</t>
@@ -683,11 +781,20 @@
 じゅるるるる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Your sperm's all gonna die when they melt in my belly.
+Sluuuurp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ごくごく・・・じゅるり♥
 にゃはは！お前の負けにゃん。
 飲み干してやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Sluurp... Gulp♥
+Nyahaha! That's your loss, nyan.
+I'll drink it all up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたにゃ！
 にゃははは♥
 ソッコー搾り取ってやるし♥</t>
@@ -741,6 +848,11 @@
 床が汚れたにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Nya-ha♥ You came again, nya♥
+The hunter's guilty pleasure, nyaa.
+You've stained the floor, nyaan.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はぁ・・・はぁ・・・
 イ、イってないし・・・！
 アホ！死ね！</t>
@@ -786,17 +898,35 @@
 上手に腰動かせるかなー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Yes♥
+I caught you so you can still move by yourself, right?
+Can you still move your waist-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わー♥なになにー？
 自分からおっぱいに擦り付けちゃうのー？
 あはははー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Waa-♥ What's going on-?
+Are you rubbing against my tits on your own-?
+Ahahaha-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;わぁ♥今日は積極的だねー♥
 私のこと押し倒しておっぱい使っちゃうなんてー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Waah♥ You're quite assertive today-♥
+I knocked you down using just my boobs-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 ほーらおっぱいに負けないようにがんばれがんばれー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squish squish squiiiish♥
+Hoora, do your best not to lose to my boobs-♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ん？出るの？
@@ -804,11 +934,21 @@
 早いよー。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hmm? You're cumming?
+You wanted to pew-pew that much?
+So soon-.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もー。
 まだ終わっちゃダメだよ？
 もっとパイズリしよ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hey-.
+You're not finished just yet, are you?
+Fuck my tits some more♥</t>
+  </si>
+  <si>
     <t>足コキ</t>
   </si>
   <si>
@@ -817,11 +957,21 @@
 あはははー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Uhuhuhu-♥
+My slimy footjob will make you cum-♥
+Ahahaha-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;\n[1]って足でされると喜んじゃうんだよねー？
 それってマゾって言うんだよー♥
 知ってたー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Does \n[1] enjoy being touched by feet-?
+That makes you a masochist-♥
+Did you know that-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;足でいっぱい負けさせてあげるからねー♥
 そのまま横になって踏まれててねー♥</t>
   </si>
@@ -879,6 +1029,10 @@
 捕まえたよー♥ぎゅぅぅー♥もう逃げられないからねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I found \n[1]-♥
+Caught you-♥ Squiiish-♥\nYou can't escape anymore-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おっぱいに溺れちゃえー♥
 むにゅぅ～～～ん♥
 あはは♥息できないでしょー♥</t>
@@ -888,6 +1042,10 @@
 むにゅぅ～～～ん♥あはは♥息できないでしょー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Drown in my boobs-♥
+Squiiiiiish～♥ Ahahah♥ You can't breath-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっあっ！逃げないでねー？
 暴れちゃだめー♥むにゅぅー♥
 おっぱいあげるから大人しくしてー♥</t>
@@ -897,6 +1055,10 @@
 暴れちゃだめー♥むにゅぅー♥おっぱいあげるから大人しくしてー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah! Ah! You're not running away-?
+Don't struggle-♥ Squiish-♥\nI'll give you my boobs if you behave-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もがもが言ってどーしたの？
 苦しいのかなー？
 ねーねー♥くるしー？</t>
@@ -906,6 +1068,10 @@
 苦しいのかなー？ねーねー♥くるしー？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're all muffled. Are you saying something?
+I wonder if this hurts-? \nHey- hey-♥ Is this painful-?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あー♥精子ちゃん出てるよー？
 苦しいんじゃなくて嬉しいだったんだねー♥
 くすくす♥</t>
@@ -915,8 +1081,16 @@
 苦しいんじゃなくて嬉しいだったんだねー♥くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ah-♥ Your sperm is coming out-?
+It must not hurt. I'm glad-♥ Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;よいしょ♥
 えへへ♥じっとしててねー？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Huupp♥
+Ehehe♥ Would you stay still-?</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;わー♥かったーい♥
@@ -928,6 +1102,10 @@
 こんなに硬くしながら逃げるの大変でしょー？もう出しちゃおうよー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I♥ got-♥ cha♥
+It must be really tough breaking free while\nyou're so stiff-? Just let it all out-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;今日はもう逃げるのやめよー？
 おっぱいで負けさせてあげるからー♥
 ねー♥</t>
@@ -937,6 +1115,10 @@
 おっぱいで負けさせてあげるからー♥ねー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you done running for the day-?
+You can accept defeat between my tits-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるんにゅるーん♥
 硬いのと柔らかいの、どっちが強いかなー？
 えいっ♥えいっ♥</t>
@@ -946,8 +1128,16 @@
 硬いのと柔らかいの、どっちが強いかなー？えいっ♥えいっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Jiggle jiggle-♥
+Between your hard thing and my soft things,\nwhich will prevail-? C'mon♥ c'mon♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あ！出そうな時の顔してるー♥
 ちょうだいちょうだーい♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ah! You make a face when you're about to cum-♥
+Gimme gimmeee-♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;やったー♥
@@ -957,6 +1147,10 @@
   <si>
     <t>\n&lt;\n[3]&gt;やったー♥
 私が捕まえたー♥うれしー♥じゃぁいっぱい食べちゃおー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There it is-♥
+I'm so glad I caught you-♥\nNow I'm gonna eat a bunch-♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;あうぅ・・・き、気持ちよかった・・・
@@ -1705,7 +1899,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,7 +1907,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1745,32 +1939,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +2004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +2012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +2028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +2044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1858,7 +2052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +2060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +2068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +2084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +2092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +2100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +2108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +2116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1930,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1938,7 +2132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1946,12 +2140,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +2153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +2161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +2169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +2185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1999,7 +2193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2007,7 +2201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +2217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2047,7 +2241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2063,7 +2257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2079,7 +2273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2087,7 +2281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2095,7 +2289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2111,7 +2305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2119,7 +2313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2127,7 +2321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2135,7 +2329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2159,7 +2353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2167,7 +2361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2175,7 +2369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2191,7 +2385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2215,7 +2409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2231,7 +2425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2247,7 +2441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2255,7 +2449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2263,7 +2457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2271,7 +2465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2279,7 +2473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2287,7 +2481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2295,7 +2489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2303,7 +2497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2319,7 +2513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2327,7 +2521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2335,7 +2529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2343,7 +2537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2351,7 +2545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2367,7 +2561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2375,7 +2569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2383,7 +2577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2391,7 +2585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2399,7 +2593,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2407,7 +2601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2415,7 +2609,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2423,7 +2617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2431,7 +2625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2447,7 +2641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2455,7 +2649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2471,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2479,7 +2673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2487,7 +2681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>51</v>
       </c>
@@ -2495,7 +2689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2503,7 +2697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2511,7 +2705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2519,7 +2713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2527,7 +2721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2535,7 +2729,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2543,7 +2737,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2551,7 +2745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2559,7 +2753,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2567,7 +2761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2575,7 +2769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2583,7 +2777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2591,7 +2785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2599,7 +2793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2607,7 +2801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2615,7 +2809,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2623,7 +2817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2631,7 +2825,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2639,7 +2833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2647,7 +2841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2655,7 +2849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2663,7 +2857,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2671,7 +2865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2679,7 +2873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2687,7 +2881,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2695,7 +2889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2703,7 +2897,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2711,7 +2905,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2719,1241 +2913,1373 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="C137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="C143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>163</v>
+      </c>
+      <c r="C144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="C158" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="C159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="C161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="C163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="C164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>201</v>
+      </c>
+      <c r="C168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="C169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>215</v>
+      </c>
+      <c r="C175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B177" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C182" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="C183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="C184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="C185" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="C186" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="C187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="C189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>242</v>
+      </c>
+      <c r="C190" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="C197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="C198" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="B199" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="C199" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>265</v>
+      </c>
+      <c r="C200" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="C201" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="C202" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>273</v>
+      </c>
+      <c r="C203" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B204" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="C204" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B205" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>279</v>
+      </c>
+      <c r="C205" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>281</v>
+      </c>
+      <c r="C206" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="C207" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="B211" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="B215" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="B220" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="B223" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="B225" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="B226" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="B227" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="B236" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="B237" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="B239" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="B240" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="B241" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="B244" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="B245" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B246" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="B255" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="B258" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B259" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B261" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="B262" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="B264" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B265" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="B266" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="B271" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
